--- a/public/01_Output/AlarmasU2020_Tower.xlsx
+++ b/public/01_Output/AlarmasU2020_Tower.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="495">
   <si>
     <t>Name</t>
   </si>
@@ -1871,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P212"/>
+  <dimension ref="A1:P209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4759,7 +4759,7 @@
         <v>40</v>
       </c>
       <c r="E58" s="2">
-        <v>561.55</v>
+        <v>589.5166666666667</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>40</v>
@@ -12343,156 +12343,6 @@
       </c>
       <c r="P209" s="4">
         <v>44988</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16">
-      <c r="A210" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C210" s="3">
-        <v>45022.77175925926</v>
-      </c>
-      <c r="D210" s="3">
-        <v>45022.77194444444</v>
-      </c>
-      <c r="E210" s="2">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J210" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K210" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L210" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M210" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N210" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O210" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P210" s="4">
-        <v>44655</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16">
-      <c r="A211" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C211" s="3">
-        <v>45022.77136574074</v>
-      </c>
-      <c r="D211" s="3">
-        <v>45022.77335648148</v>
-      </c>
-      <c r="E211" s="2">
-        <v>2.866666666666667</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J211" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K211" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L211" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M211" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N211" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O211" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P211" s="4">
-        <v>44631</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16">
-      <c r="A212" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C212" s="3">
-        <v>45022.77082175926</v>
-      </c>
-      <c r="D212" s="3">
-        <v>45022.77369212963</v>
-      </c>
-      <c r="E212" s="2">
-        <v>4.133333333333334</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J212" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L212" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M212" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N212" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O212" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P212" s="4">
-        <v>44588</v>
       </c>
     </row>
   </sheetData>
@@ -12585,7 +12435,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="2">
-        <v>561.55</v>
+        <v>589.5166666666667</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -12638,10 +12488,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>353.3166666666668</v>
+        <v>350.4500000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -12691,10 +12541,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>299.7833333333333</v>
+        <v>299.5166666666667</v>
       </c>
       <c r="C4" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -13165,13 +13015,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
-        <v>6.800000000000001</v>
+        <v>5.933333333333334</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -13198,30 +13048,30 @@
         <v>40</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>115</v>
       </c>
       <c r="Q13" s="4">
-        <v>44588</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
-        <v>5.933333333333334</v>
+        <v>4.2</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -13242,39 +13092,39 @@
         <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>115</v>
       </c>
       <c r="Q14" s="4">
-        <v>44779</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>4.2</v>
+        <v>4.133333333333334</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -13295,42 +13145,42 @@
         <v>40</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="4">
-        <v>44797</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>4.133333333333334</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -13357,33 +13207,33 @@
         <v>40</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="4">
-        <v>44631</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>3.466666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -13410,22 +13260,22 @@
         <v>40</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>115</v>
       </c>
       <c r="Q17" s="4">
-        <v>44819</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="18" spans="1:17">
